--- a/medication_base_report.xlsx
+++ b/medication_base_report.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>14.04</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14.80</t>
+          <t>17.55</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29.75</t>
+          <t>30.67</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.40</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>34.45</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>12.71</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.59</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.31</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1363.18</t>
+          <t>1783.60</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>496.86</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.21</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>224.92</t>
+          <t>296.51</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>10.32</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.15</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>297.65</t>
+          <t>917.28</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54.23</t>
+          <t>64.65</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>64.70</t>
+          <t>122.30</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>132.72</t>
+          <t>183.45</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>27.93</t>
+          <t>124.62</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>3.42</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>7.41</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>86.70</t>
+          <t>183.45</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>41.53</t>
+          <t>96.31</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>11.64</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.37</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>249.21</t>
+          <t>1087.90</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>139.62</t>
+          <t>275.18</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>91.41</t>
+          <t>161.28</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>124.95</t>
+          <t>183.45</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>78.25</t>
+          <t>102.78</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>204.82</t>
+          <t>434.49</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>314.98</t>
+          <t>516.67</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>288.33</t>
+          <t>382.20</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>223.35</t>
+          <t>254.80</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>10.53</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>590.35</t>
+          <t>2000.33</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>122.30</t>
+          <t>183.45</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>433.51</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>455.65</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>27.80</t>
+          <t>52.48</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>337.94</t>
+          <t>484.39</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>59.81</t>
+          <t>102.42</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.91</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>77.52</t>
+          <t>137.35</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>160.36</t>
+          <t>415.01</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>94.97</t>
+          <t>237.41</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>231.95</t>
+          <t>507.86</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>412.66</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>11.28</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>6.40</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>376.20</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>466.62</t>
+          <t>761.34</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>11.73</t>
+          <t>12.31</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>118.09</t>
+          <t>168.16</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>526.55</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>693.43</t>
+          <t>2232.49</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>88.51</t>
+          <t>279.00</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>58.21</t>
+          <t>162.47</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>676.19</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>3.65</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>57.55</t>
+          <t>117.99</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>58.61</t>
+          <t>128.93</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>7.06</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.84</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>433.71</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>179.01</t>
+          <t>482.57</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>481.63</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>4.68</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>36.78</t>
+          <t>92.24</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>447.43</t>
+          <t>764.40</t>
         </is>
       </c>
     </row>
